--- a/src/test/java/ru/fds/tavrzcms3/testdata/client_ind_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/client_ind_update.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <r>
       <t xml:space="preserve">client_manager_id: </t>
@@ -157,6 +157,12 @@
       </rPr>
       <t>0</t>
     </r>
+  </si>
+  <si>
+    <t>Фамилия 2</t>
+  </si>
+  <si>
+    <t>Имя 3</t>
   </si>
 </sst>
 </file>
@@ -496,7 +502,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,6 +572,9 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
@@ -585,6 +594,9 @@
       </c>
       <c r="D4" t="s">
         <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
